--- a/biology/Botanique/Thelypteris_noveboracensis/Thelypteris_noveboracensis.xlsx
+++ b/biology/Botanique/Thelypteris_noveboracensis/Thelypteris_noveboracensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thélyptère de New York
 Thelypteris noveboracensis, appelée en français Thélyptère de New York, est une fougère de la famille des Thelypteridaceae originaire de l'est de l'Amérique du Nord.
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -540,10 +554,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Thelypteris noveboracensis est une fougère glabre, à rhizome rampant, qui possède des frondes bipennées à long pétiole. Les lobes des pinnules sont entiers, très légèrement enroulés vers la face inférieure.
-Appareil reproducteur
-Les sores sont disposées sur la face inférieure, de part et d'autre de la nervure centrale.
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thelypteris noveboracensis est une fougère glabre, à rhizome rampant, qui possède des frondes bipennées à long pétiole. Les lobes des pinnules sont entiers, très légèrement enroulés vers la face inférieure.
 </t>
         </is>
       </c>
@@ -569,10 +586,49 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description morphologique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les sores sont disposées sur la face inférieure, de part et d'autre de la nervure centrale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Thelypteris_noveboracensis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Thelypteris_noveboracensis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
